--- a/3_Component_Results/IMPORT/Tables/naive_tbl/AVERAGE_10_9_qoq_forecast_error_table_first_eval.xlsx
+++ b/3_Component_Results/IMPORT/Tables/naive_tbl/AVERAGE_10_9_qoq_forecast_error_table_first_eval.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>ME</t>
   </si>
@@ -56,6 +56,9 @@
   </si>
   <si>
     <t>Q7</t>
+  </si>
+  <si>
+    <t>Q8</t>
   </si>
 </sst>
 </file>
@@ -413,7 +416,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -444,19 +447,19 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>0.03246525188324618</v>
+        <v>0.6218823598496552</v>
       </c>
       <c r="C2">
-        <v>0.8402967142806544</v>
+        <v>1.096605552064985</v>
       </c>
       <c r="D2">
-        <v>1.364006703731106</v>
+        <v>2.427837951941459</v>
       </c>
       <c r="E2">
-        <v>1.167906975632523</v>
+        <v>1.558152095253047</v>
       </c>
       <c r="F2">
-        <v>1.211525991216725</v>
+        <v>1.48260176597893</v>
       </c>
       <c r="G2">
         <v>14</v>
@@ -467,19 +470,19 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>0.1793120793632179</v>
+        <v>0.8174721314412605</v>
       </c>
       <c r="C3">
-        <v>0.7219568341868541</v>
+        <v>1.10518048279258</v>
       </c>
       <c r="D3">
-        <v>0.8088665819578972</v>
+        <v>2.163959630326707</v>
       </c>
       <c r="E3">
-        <v>0.8993701028819544</v>
+        <v>1.471040322467983</v>
       </c>
       <c r="F3">
-        <v>0.9173003362212933</v>
+        <v>1.27292596931789</v>
       </c>
       <c r="G3">
         <v>13</v>
@@ -490,19 +493,19 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>0.2370019470985655</v>
+        <v>0.9296915348393564</v>
       </c>
       <c r="C4">
-        <v>0.6464296653775738</v>
+        <v>1.057526726501673</v>
       </c>
       <c r="D4">
-        <v>0.7329750760963898</v>
+        <v>2.122174631855285</v>
       </c>
       <c r="E4">
-        <v>0.8561396358634435</v>
+        <v>1.456768558095378</v>
       </c>
       <c r="F4">
-        <v>0.8592629948769809</v>
+        <v>1.171408607494721</v>
       </c>
       <c r="G4">
         <v>12</v>
@@ -513,19 +516,19 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>0.1018334789325138</v>
+        <v>0.8447393623444465</v>
       </c>
       <c r="C5">
-        <v>0.7140570008145873</v>
+        <v>0.9483023203837487</v>
       </c>
       <c r="D5">
-        <v>0.9047075357651362</v>
+        <v>2.119205806994529</v>
       </c>
       <c r="E5">
-        <v>0.9511611513119825</v>
+        <v>1.455749225311327</v>
       </c>
       <c r="F5">
-        <v>0.9918524215663342</v>
+        <v>1.243456206856707</v>
       </c>
       <c r="G5">
         <v>11</v>
@@ -536,19 +539,19 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>-0.01628901252663863</v>
+        <v>0.7998127184437969</v>
       </c>
       <c r="C6">
-        <v>0.5762917191659863</v>
+        <v>0.8513425680011373</v>
       </c>
       <c r="D6">
-        <v>0.4843936756090192</v>
+        <v>1.503415309836061</v>
       </c>
       <c r="E6">
-        <v>0.6959839621780226</v>
+        <v>1.226138373037913</v>
       </c>
       <c r="F6">
-        <v>0.7334305569490439</v>
+        <v>0.9796342431129901</v>
       </c>
       <c r="G6">
         <v>10</v>
@@ -559,22 +562,22 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>0.005046116874001884</v>
+        <v>0.9099748266321157</v>
       </c>
       <c r="C7">
-        <v>0.5638493737306866</v>
+        <v>0.9718423566515457</v>
       </c>
       <c r="D7">
-        <v>0.4220118268438253</v>
+        <v>1.455436698790223</v>
       </c>
       <c r="E7">
-        <v>0.6496243736528251</v>
+        <v>1.206414812073452</v>
       </c>
       <c r="F7">
-        <v>0.7016533504086656</v>
+        <v>0.8401222100961462</v>
       </c>
       <c r="G7">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -582,22 +585,22 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>0.497331491559386</v>
+        <v>1.088978392985429</v>
       </c>
       <c r="C8">
-        <v>0.7737771080012386</v>
+        <v>1.112266431153142</v>
       </c>
       <c r="D8">
-        <v>0.8767314197246154</v>
+        <v>2.215538431729544</v>
       </c>
       <c r="E8">
-        <v>0.9363393720893165</v>
+        <v>1.488468485299418</v>
       </c>
       <c r="F8">
-        <v>0.9160733647679329</v>
+        <v>1.111574284341132</v>
       </c>
       <c r="G8">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -605,18 +608,41 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>0.8565069375100112</v>
+        <v>1.309335564656196</v>
       </c>
       <c r="C9">
-        <v>0.8565069375100112</v>
+        <v>1.309335564656196</v>
       </c>
       <c r="D9">
-        <v>0.7336041340027781</v>
+        <v>2.208706261879395</v>
       </c>
       <c r="E9">
-        <v>0.8565069375100112</v>
+        <v>1.486171679813404</v>
+      </c>
+      <c r="F9">
+        <v>0.8611155331944436</v>
       </c>
       <c r="G9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10">
+        <v>0.5344944032044353</v>
+      </c>
+      <c r="C10">
+        <v>0.5344944032044353</v>
+      </c>
+      <c r="D10">
+        <v>0.2856842670568654</v>
+      </c>
+      <c r="E10">
+        <v>0.5344944032044353</v>
+      </c>
+      <c r="G10">
         <v>1</v>
       </c>
     </row>

--- a/3_Component_Results/IMPORT/Tables/naive_tbl/AVERAGE_10_9_qoq_forecast_error_table_first_eval.xlsx
+++ b/3_Component_Results/IMPORT/Tables/naive_tbl/AVERAGE_10_9_qoq_forecast_error_table_first_eval.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>ME</t>
   </si>
@@ -59,6 +59,9 @@
   </si>
   <si>
     <t>Q8</t>
+  </si>
+  <si>
+    <t>Q9</t>
   </si>
 </sst>
 </file>
@@ -416,7 +419,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -447,22 +450,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>0.6218823598496552</v>
+        <v>0.2312766622086449</v>
       </c>
       <c r="C2">
-        <v>1.096605552064985</v>
+        <v>1.879048156589436</v>
       </c>
       <c r="D2">
-        <v>2.427837951941459</v>
+        <v>10.90505104412208</v>
       </c>
       <c r="E2">
-        <v>1.558152095253047</v>
+        <v>3.3022796738196</v>
       </c>
       <c r="F2">
-        <v>1.48260176597893</v>
+        <v>3.326949562682384</v>
       </c>
       <c r="G2">
-        <v>14</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -470,22 +473,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>0.8174721314412605</v>
+        <v>0.515602234217057</v>
       </c>
       <c r="C3">
-        <v>1.10518048279258</v>
+        <v>1.963007146147895</v>
       </c>
       <c r="D3">
-        <v>2.163959630326707</v>
+        <v>11.82602839579948</v>
       </c>
       <c r="E3">
-        <v>1.471040322467983</v>
+        <v>3.438899300037655</v>
       </c>
       <c r="F3">
-        <v>1.27292596931789</v>
+        <v>3.434545796526614</v>
       </c>
       <c r="G3">
-        <v>13</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -493,22 +496,22 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>0.9296915348393564</v>
+        <v>0.3567007860761084</v>
       </c>
       <c r="C4">
-        <v>1.057526726501673</v>
+        <v>1.897578673147804</v>
       </c>
       <c r="D4">
-        <v>2.122174631855285</v>
+        <v>11.03219032630682</v>
       </c>
       <c r="E4">
-        <v>1.456768558095378</v>
+        <v>3.32147411946967</v>
       </c>
       <c r="F4">
-        <v>1.171408607494721</v>
+        <v>3.336486390714962</v>
       </c>
       <c r="G4">
-        <v>12</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -516,22 +519,22 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>0.8447393623444465</v>
+        <v>0.5452471532615414</v>
       </c>
       <c r="C5">
-        <v>0.9483023203837487</v>
+        <v>1.991328350292171</v>
       </c>
       <c r="D5">
-        <v>2.119205806994529</v>
+        <v>12.46298015738944</v>
       </c>
       <c r="E5">
-        <v>1.455749225311327</v>
+        <v>3.530294627561478</v>
       </c>
       <c r="F5">
-        <v>1.243456206856707</v>
+        <v>3.524844688185481</v>
       </c>
       <c r="G5">
-        <v>11</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -539,22 +542,22 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>0.7998127184437969</v>
+        <v>0.4748333535619241</v>
       </c>
       <c r="C6">
-        <v>0.8513425680011373</v>
+        <v>1.853041692924432</v>
       </c>
       <c r="D6">
-        <v>1.503415309836061</v>
+        <v>11.1369772540728</v>
       </c>
       <c r="E6">
-        <v>1.226138373037913</v>
+        <v>3.337210999333545</v>
       </c>
       <c r="F6">
-        <v>0.9796342431129901</v>
+        <v>3.338969495412706</v>
       </c>
       <c r="G6">
-        <v>10</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -562,22 +565,22 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>0.9099748266321157</v>
+        <v>0.4980755295490984</v>
       </c>
       <c r="C7">
-        <v>0.9718423566515457</v>
+        <v>1.841574822490943</v>
       </c>
       <c r="D7">
-        <v>1.455436698790223</v>
+        <v>11.41347372914766</v>
       </c>
       <c r="E7">
-        <v>1.206414812073452</v>
+        <v>3.378383301099457</v>
       </c>
       <c r="F7">
-        <v>0.8401222100961462</v>
+        <v>3.378389316479261</v>
       </c>
       <c r="G7">
-        <v>9</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -585,22 +588,22 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>1.088978392985429</v>
+        <v>0.3675858156243708</v>
       </c>
       <c r="C8">
-        <v>1.112266431153142</v>
+        <v>1.629918664393685</v>
       </c>
       <c r="D8">
-        <v>2.215538431729544</v>
+        <v>9.8136786659588</v>
       </c>
       <c r="E8">
-        <v>1.488468485299418</v>
+        <v>3.132679151454678</v>
       </c>
       <c r="F8">
-        <v>1.111574284341132</v>
+        <v>3.14619239584994</v>
       </c>
       <c r="G8">
-        <v>6</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -608,22 +611,22 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>1.309335564656196</v>
+        <v>0.3916378424397349</v>
       </c>
       <c r="C9">
-        <v>1.309335564656196</v>
+        <v>1.741856079646775</v>
       </c>
       <c r="D9">
-        <v>2.208706261879395</v>
+        <v>10.36499202449527</v>
       </c>
       <c r="E9">
-        <v>1.486171679813404</v>
+        <v>3.219470767765297</v>
       </c>
       <c r="F9">
-        <v>0.8611155331944436</v>
+        <v>3.232505401330167</v>
       </c>
       <c r="G9">
-        <v>3</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -631,19 +634,45 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>0.5344944032044353</v>
+        <v>0.5067708388377236</v>
       </c>
       <c r="C10">
-        <v>0.5344944032044353</v>
+        <v>1.530135071712105</v>
       </c>
       <c r="D10">
-        <v>0.2856842670568654</v>
+        <v>9.825491045469901</v>
       </c>
       <c r="E10">
-        <v>0.5344944032044353</v>
+        <v>3.134563932267119</v>
+      </c>
+      <c r="F10">
+        <v>3.129936092387531</v>
       </c>
       <c r="G10">
-        <v>1</v>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11">
+        <v>0.2841523553027562</v>
+      </c>
+      <c r="C11">
+        <v>1.690716294712478</v>
+      </c>
+      <c r="D11">
+        <v>10.17884259426374</v>
+      </c>
+      <c r="E11">
+        <v>3.190429844748782</v>
+      </c>
+      <c r="F11">
+        <v>3.216270379803536</v>
+      </c>
+      <c r="G11">
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/3_Component_Results/IMPORT/Tables/naive_tbl/AVERAGE_10_9_qoq_forecast_error_table_first_eval.xlsx
+++ b/3_Component_Results/IMPORT/Tables/naive_tbl/AVERAGE_10_9_qoq_forecast_error_table_first_eval.xlsx
@@ -450,22 +450,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>0.2312766622086449</v>
+        <v>0.6058719545628528</v>
       </c>
       <c r="C2">
-        <v>1.879048156589436</v>
+        <v>2.273965417999197</v>
       </c>
       <c r="D2">
-        <v>10.90505104412208</v>
+        <v>13.7752703967488</v>
       </c>
       <c r="E2">
-        <v>3.3022796738196</v>
+        <v>3.711505138989949</v>
       </c>
       <c r="F2">
-        <v>3.326949562682384</v>
+        <v>3.70610558205782</v>
       </c>
       <c r="G2">
-        <v>51</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -473,22 +473,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>0.515602234217057</v>
+        <v>0.2253023586752266</v>
       </c>
       <c r="C3">
-        <v>1.963007146147895</v>
+        <v>2.175657567196922</v>
       </c>
       <c r="D3">
-        <v>11.82602839579948</v>
+        <v>13.37304018303112</v>
       </c>
       <c r="E3">
-        <v>3.438899300037655</v>
+        <v>3.656916759106107</v>
       </c>
       <c r="F3">
-        <v>3.434545796526614</v>
+        <v>3.695312707466266</v>
       </c>
       <c r="G3">
-        <v>50</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -496,22 +496,22 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>0.3567007860761084</v>
+        <v>0.5126286334978025</v>
       </c>
       <c r="C4">
-        <v>1.897578673147804</v>
+        <v>2.228379559222172</v>
       </c>
       <c r="D4">
-        <v>11.03219032630682</v>
+        <v>14.40588458795522</v>
       </c>
       <c r="E4">
-        <v>3.32147411946967</v>
+        <v>3.795508475547805</v>
       </c>
       <c r="F4">
-        <v>3.336486390714962</v>
+        <v>3.808640173520903</v>
       </c>
       <c r="G4">
-        <v>49</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -519,22 +519,22 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>0.5452471532615414</v>
+        <v>0.2827631271565333</v>
       </c>
       <c r="C5">
-        <v>1.991328350292171</v>
+        <v>2.17940400322231</v>
       </c>
       <c r="D5">
-        <v>12.46298015738944</v>
+        <v>13.49293633865711</v>
       </c>
       <c r="E5">
-        <v>3.530294627561478</v>
+        <v>3.673273245847239</v>
       </c>
       <c r="F5">
-        <v>3.524844688185481</v>
+        <v>3.710249930404507</v>
       </c>
       <c r="G5">
-        <v>48</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -542,22 +542,22 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>0.4748333535619241</v>
+        <v>0.4944692049487463</v>
       </c>
       <c r="C6">
-        <v>1.853041692924432</v>
+        <v>2.291119334397112</v>
       </c>
       <c r="D6">
-        <v>11.1369772540728</v>
+        <v>15.22527009109669</v>
       </c>
       <c r="E6">
-        <v>3.337210999333545</v>
+        <v>3.901957212873649</v>
       </c>
       <c r="F6">
-        <v>3.338969495412706</v>
+        <v>3.922455350943079</v>
       </c>
       <c r="G6">
-        <v>47</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -565,22 +565,22 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>0.4980755295490984</v>
+        <v>0.3870010927830395</v>
       </c>
       <c r="C7">
-        <v>1.841574822490943</v>
+        <v>2.123771186146944</v>
       </c>
       <c r="D7">
-        <v>11.41347372914766</v>
+        <v>13.74064264440705</v>
       </c>
       <c r="E7">
-        <v>3.378383301099457</v>
+        <v>3.706837283238509</v>
       </c>
       <c r="F7">
-        <v>3.378389316479261</v>
+        <v>3.737431878041005</v>
       </c>
       <c r="G7">
-        <v>46</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -588,22 +588,22 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>0.3675858156243708</v>
+        <v>0.4119344969644807</v>
       </c>
       <c r="C8">
-        <v>1.629918664393685</v>
+        <v>2.107164434821323</v>
       </c>
       <c r="D8">
-        <v>9.8136786659588</v>
+        <v>14.21970027773409</v>
       </c>
       <c r="E8">
-        <v>3.132679151454678</v>
+        <v>3.770901785744902</v>
       </c>
       <c r="F8">
-        <v>3.14619239584994</v>
+        <v>3.801504848368828</v>
       </c>
       <c r="G8">
-        <v>45</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -611,22 +611,22 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>0.3916378424397349</v>
+        <v>0.2440861792744094</v>
       </c>
       <c r="C9">
-        <v>1.741856079646775</v>
+        <v>1.822874919107301</v>
       </c>
       <c r="D9">
-        <v>10.36499202449527</v>
+        <v>12.15750528843192</v>
       </c>
       <c r="E9">
-        <v>3.219470767765297</v>
+        <v>3.486761432681037</v>
       </c>
       <c r="F9">
-        <v>3.232505401330167</v>
+        <v>3.528986910503495</v>
       </c>
       <c r="G9">
-        <v>44</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -634,22 +634,22 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>0.5067708388377236</v>
+        <v>0.2707931634234895</v>
       </c>
       <c r="C10">
-        <v>1.530135071712105</v>
+        <v>1.979019481310122</v>
       </c>
       <c r="D10">
-        <v>9.825491045469901</v>
+        <v>13.02697252254846</v>
       </c>
       <c r="E10">
-        <v>3.134563932267119</v>
+        <v>3.609289753199161</v>
       </c>
       <c r="F10">
-        <v>3.129936092387531</v>
+        <v>3.653242154482546</v>
       </c>
       <c r="G10">
-        <v>43</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -657,22 +657,22 @@
         <v>15</v>
       </c>
       <c r="B11">
-        <v>0.2841523553027562</v>
+        <v>0.4558814406081306</v>
       </c>
       <c r="C11">
-        <v>1.690716294712478</v>
+        <v>1.700108481721239</v>
       </c>
       <c r="D11">
-        <v>10.17884259426374</v>
+        <v>12.37740496525853</v>
       </c>
       <c r="E11">
-        <v>3.190429844748782</v>
+        <v>3.51815363013876</v>
       </c>
       <c r="F11">
-        <v>3.216270379803536</v>
+        <v>3.542580466416441</v>
       </c>
       <c r="G11">
-        <v>42</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/3_Component_Results/IMPORT/Tables/naive_tbl/AVERAGE_10_9_qoq_forecast_error_table_first_eval.xlsx
+++ b/3_Component_Results/IMPORT/Tables/naive_tbl/AVERAGE_10_9_qoq_forecast_error_table_first_eval.xlsx
@@ -450,22 +450,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>0.6058719545628528</v>
+        <v>0.2066981850894128</v>
       </c>
       <c r="C2">
-        <v>2.273965417999197</v>
+        <v>2.270155390337222</v>
       </c>
       <c r="D2">
-        <v>13.7752703967488</v>
+        <v>13.1891407897574</v>
       </c>
       <c r="E2">
-        <v>3.711505138989949</v>
+        <v>3.631685667807362</v>
       </c>
       <c r="F2">
-        <v>3.70610558205782</v>
+        <v>3.661877248494126</v>
       </c>
       <c r="G2">
-        <v>42</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -473,22 +473,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>0.2253023586752266</v>
+        <v>-0.075228059080023</v>
       </c>
       <c r="C3">
-        <v>2.175657567196922</v>
+        <v>2.191059243838117</v>
       </c>
       <c r="D3">
-        <v>13.37304018303112</v>
+        <v>12.66358371323103</v>
       </c>
       <c r="E3">
-        <v>3.656916759106107</v>
+        <v>3.558592940086155</v>
       </c>
       <c r="F3">
-        <v>3.695312707466266</v>
+        <v>3.59391839656686</v>
       </c>
       <c r="G3">
-        <v>41</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -496,22 +496,22 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>0.5126286334978025</v>
+        <v>0.207102134124417</v>
       </c>
       <c r="C4">
-        <v>2.228379559222172</v>
+        <v>2.274418628387441</v>
       </c>
       <c r="D4">
-        <v>14.40588458795522</v>
+        <v>13.76964981448061</v>
       </c>
       <c r="E4">
-        <v>3.795508475547805</v>
+        <v>3.710747878053778</v>
       </c>
       <c r="F4">
-        <v>3.808640173520903</v>
+        <v>3.743358472864432</v>
       </c>
       <c r="G4">
-        <v>40</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -519,22 +519,22 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>0.2827631271565333</v>
+        <v>0.03062386419637815</v>
       </c>
       <c r="C5">
-        <v>2.17940400322231</v>
+        <v>2.209507036589459</v>
       </c>
       <c r="D5">
-        <v>13.49293633865711</v>
+        <v>12.80187705469571</v>
       </c>
       <c r="E5">
-        <v>3.673273245847239</v>
+        <v>3.577971080751731</v>
       </c>
       <c r="F5">
-        <v>3.710249930404507</v>
+        <v>3.615701818853944</v>
       </c>
       <c r="G5">
-        <v>39</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -542,22 +542,22 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>0.4944692049487463</v>
+        <v>0.2145225631768136</v>
       </c>
       <c r="C6">
-        <v>2.291119334397112</v>
+        <v>2.299235277238912</v>
       </c>
       <c r="D6">
-        <v>15.22527009109669</v>
+        <v>13.98594729776688</v>
       </c>
       <c r="E6">
-        <v>3.901957212873649</v>
+        <v>3.739779043976646</v>
       </c>
       <c r="F6">
-        <v>3.922455350943079</v>
+        <v>3.77398585940008</v>
       </c>
       <c r="G6">
-        <v>38</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -565,22 +565,22 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>0.3870010927830395</v>
+        <v>0.1255984722002377</v>
       </c>
       <c r="C7">
-        <v>2.123771186146944</v>
+        <v>2.192001147543182</v>
       </c>
       <c r="D7">
-        <v>13.74064264440705</v>
+        <v>12.97327225105472</v>
       </c>
       <c r="E7">
-        <v>3.706837283238509</v>
+        <v>3.601842896498225</v>
       </c>
       <c r="F7">
-        <v>3.737431878041005</v>
+        <v>3.639428754450474</v>
       </c>
       <c r="G7">
-        <v>37</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -588,22 +588,22 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>0.4119344969644807</v>
+        <v>0.1386258507452061</v>
       </c>
       <c r="C8">
-        <v>2.107164434821323</v>
+        <v>2.134562903283757</v>
       </c>
       <c r="D8">
-        <v>14.21970027773409</v>
+        <v>12.94582025312243</v>
       </c>
       <c r="E8">
-        <v>3.770901785744902</v>
+        <v>3.598030051725864</v>
       </c>
       <c r="F8">
-        <v>3.801504848368828</v>
+        <v>3.635985363188866</v>
       </c>
       <c r="G8">
-        <v>36</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -611,22 +611,22 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>0.2440861792744094</v>
+        <v>-0.01227215085340897</v>
       </c>
       <c r="C9">
-        <v>1.822874919107301</v>
+        <v>1.819249639236372</v>
       </c>
       <c r="D9">
-        <v>12.15750528843192</v>
+        <v>11.02222735225344</v>
       </c>
       <c r="E9">
-        <v>3.486761432681037</v>
+        <v>3.319973998731532</v>
       </c>
       <c r="F9">
-        <v>3.528986910503495</v>
+        <v>3.358333532090894</v>
       </c>
       <c r="G9">
-        <v>35</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -634,22 +634,22 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>0.2707931634234895</v>
+        <v>-0.0200094225433071</v>
       </c>
       <c r="C10">
-        <v>1.979019481310122</v>
+        <v>1.878919759582091</v>
       </c>
       <c r="D10">
-        <v>13.02697252254846</v>
+        <v>11.5868556758706</v>
       </c>
       <c r="E10">
-        <v>3.609289753199161</v>
+        <v>3.403947073012534</v>
       </c>
       <c r="F10">
-        <v>3.653242154482546</v>
+        <v>3.44417236534218</v>
       </c>
       <c r="G10">
-        <v>34</v>
+        <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -657,22 +657,22 @@
         <v>15</v>
       </c>
       <c r="B11">
-        <v>0.4558814406081306</v>
+        <v>0.06995512137203723</v>
       </c>
       <c r="C11">
-        <v>1.700108481721239</v>
+        <v>1.589308054450445</v>
       </c>
       <c r="D11">
-        <v>12.37740496525853</v>
+        <v>10.76865959017209</v>
       </c>
       <c r="E11">
-        <v>3.51815363013876</v>
+        <v>3.28156358923183</v>
       </c>
       <c r="F11">
-        <v>3.542580466416441</v>
+        <v>3.320586807489363</v>
       </c>
       <c r="G11">
-        <v>33</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/3_Component_Results/IMPORT/Tables/naive_tbl/AVERAGE_10_9_qoq_forecast_error_table_first_eval.xlsx
+++ b/3_Component_Results/IMPORT/Tables/naive_tbl/AVERAGE_10_9_qoq_forecast_error_table_first_eval.xlsx
@@ -565,22 +565,22 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>0.1255984722002377</v>
+        <v>0.05419696197628752</v>
       </c>
       <c r="C7">
-        <v>2.192001147543182</v>
+        <v>2.10407014602131</v>
       </c>
       <c r="D7">
-        <v>12.97327225105472</v>
+        <v>13.00453704867561</v>
       </c>
       <c r="E7">
-        <v>3.601842896498225</v>
+        <v>3.606180396025081</v>
       </c>
       <c r="F7">
-        <v>3.639428754450474</v>
+        <v>3.654174917201057</v>
       </c>
       <c r="G7">
-        <v>46</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -588,22 +588,22 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>0.1386258507452061</v>
+        <v>0.228655978109646</v>
       </c>
       <c r="C8">
-        <v>2.134562903283757</v>
+        <v>2.04971899904124</v>
       </c>
       <c r="D8">
-        <v>12.94582025312243</v>
+        <v>12.64796182215585</v>
       </c>
       <c r="E8">
-        <v>3.598030051725864</v>
+        <v>3.55639730937867</v>
       </c>
       <c r="F8">
-        <v>3.635985363188866</v>
+        <v>3.597993637801378</v>
       </c>
       <c r="G8">
-        <v>45</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -611,22 +611,22 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>-0.01227215085340897</v>
+        <v>0.2908677701452642</v>
       </c>
       <c r="C9">
-        <v>1.819249639236372</v>
+        <v>2.547516861569405</v>
       </c>
       <c r="D9">
-        <v>11.02222735225344</v>
+        <v>20.99274268013081</v>
       </c>
       <c r="E9">
-        <v>3.319973998731532</v>
+        <v>4.581783788016498</v>
       </c>
       <c r="F9">
-        <v>3.358333532090894</v>
+        <v>4.691328912884362</v>
       </c>
       <c r="G9">
-        <v>44</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -634,22 +634,22 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>-0.0200094225433071</v>
+        <v>-0.9702732014409903</v>
       </c>
       <c r="C10">
-        <v>1.878919759582091</v>
+        <v>2.007183996697524</v>
       </c>
       <c r="D10">
-        <v>11.5868556758706</v>
+        <v>8.368548844988011</v>
       </c>
       <c r="E10">
-        <v>3.403947073012534</v>
+        <v>2.892844421151613</v>
       </c>
       <c r="F10">
-        <v>3.44417236534218</v>
+        <v>2.836555185934091</v>
       </c>
       <c r="G10">
-        <v>43</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -657,22 +657,22 @@
         <v>15</v>
       </c>
       <c r="B11">
-        <v>0.06995512137203723</v>
+        <v>-0.934137815474154</v>
       </c>
       <c r="C11">
-        <v>1.589308054450445</v>
+        <v>1.739680744534949</v>
       </c>
       <c r="D11">
-        <v>10.76865959017209</v>
+        <v>5.346651227107502</v>
       </c>
       <c r="E11">
-        <v>3.28156358923183</v>
+        <v>2.312282687542226</v>
       </c>
       <c r="F11">
-        <v>3.320586807489363</v>
+        <v>2.364856699889202</v>
       </c>
       <c r="G11">
-        <v>42</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
